--- a/data/hotels_by_city/Houston/Houston_shard_552.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_552.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10367555-Reviews-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-WestBeltway-8-At-Clay-Rd.h15417969.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,386 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r592169077-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10367555</t>
+  </si>
+  <si>
+    <t>592169077</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Nice, New, and Clean</t>
+  </si>
+  <si>
+    <t>Great stay at this Residence Inn in Houston. Got booked here for a business trip staying Sunday thru Friday morning. The room was big and had everything you would need for an extended stay. Check in and check out was easy and the staff was efficient. The mangers mixer Mon-Wed is nice, with some simple tasty foods and adult beverages. The Gal that hosted the mixer is super friendly and makes sure that everyone has what they need. The free breakfast in the mornings is standard with eggs, sausage, waffles, etc... but are also plentiful and fresh. The common areas of the hotel were always clean. It was a small disappointment that the pool was closed, for some reason it had turned green on them but looks like they are trying to get it reopened by the end of June. Also, cell service here is not very good. Had difficulty multiple times communicating with others at the same hotel and with loved ones back home. Got numerous texts and voicemails once off property. Might just be a lapse in Verizon coverage but others with different providers had the same problems. Overall a great stay though, would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Great stay at this Residence Inn in Houston. Got booked here for a business trip staying Sunday thru Friday morning. The room was big and had everything you would need for an extended stay. Check in and check out was easy and the staff was efficient. The mangers mixer Mon-Wed is nice, with some simple tasty foods and adult beverages. The Gal that hosted the mixer is super friendly and makes sure that everyone has what they need. The free breakfast in the mornings is standard with eggs, sausage, waffles, etc... but are also plentiful and fresh. The common areas of the hotel were always clean. It was a small disappointment that the pool was closed, for some reason it had turned green on them but looks like they are trying to get it reopened by the end of June. Also, cell service here is not very good. Had difficulty multiple times communicating with others at the same hotel and with loved ones back home. Got numerous texts and voicemails once off property. Might just be a lapse in Verizon coverage but others with different providers had the same problems. Overall a great stay though, would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r591765489-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591765489</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Very Loud AC and Fridge</t>
+  </si>
+  <si>
+    <t>OK...if you have ever stayed in a Residence Inn you are familiar with the AC in the closet right in front of the bed. Mine was so noisy I turned it off despite the temp outside in the 80s at night...which really didn't help because I could hear the AC unit next door vibrating through the wall/bed. On top of that the refrigerator gurgled all night long. Nice enough property apart from that. But...would I stay here again? Probably not.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Residence Inn Houston West/Beltway 8 at Clay Road, responded to this reviewResponded June 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2018</t>
+  </si>
+  <si>
+    <t>OK...if you have ever stayed in a Residence Inn you are familiar with the AC in the closet right in front of the bed. Mine was so noisy I turned it off despite the temp outside in the 80s at night...which really didn't help because I could hear the AC unit next door vibrating through the wall/bed. On top of that the refrigerator gurgled all night long. Nice enough property apart from that. But...would I stay here again? Probably not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r578457241-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578457241</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice but not much nearby. </t>
+  </si>
+  <si>
+    <t>One of the better RI’s I’ve stayed in, solidly built, quiet rooms and nicely designed. Chose this place for proximity to an early business appointment. The only compromise is that it’s at least a 15 minute drive or more to find decent restaurants or markets.  I recommend taking the 25 minute drive to find Central Market downtown. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Residence Inn Houston West/Beltway 8 at Clay Road, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>One of the better RI’s I’ve stayed in, solidly built, quiet rooms and nicely designed. Chose this place for proximity to an early business appointment. The only compromise is that it’s at least a 15 minute drive or more to find decent restaurants or markets.  I recommend taking the 25 minute drive to find Central Market downtown. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r566927976-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566927976</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>King room</t>
+  </si>
+  <si>
+    <t>I booked directly through Marriott, as a rewards member, for a king room. I arrived at 5:55pm to check in and according to Bradley, the front desk attendant, the only king room left was a handicapped one. Handicapped rooms are wonderful for people who want them, but I did not wish to bathe in a bathtub with a fold out wall seat and bars all over the place. Was not the experience I was expecting. In the past, I’ve usually had much better experiences with Marriott properties. Additionally, the checkin process was awkward. Usually the attendant alerts you to breakfast hours, amenities, etc. Bradley just asked me if I had questions and handed me a key. Overall, I will not choose this hotel for stays in the future. I went down the street to the Holiday Inn where I am currently in a much nicer room for the same price. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Residence Inn Houston West/Beltway 8 at Clay Road, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>I booked directly through Marriott, as a rewards member, for a king room. I arrived at 5:55pm to check in and according to Bradley, the front desk attendant, the only king room left was a handicapped one. Handicapped rooms are wonderful for people who want them, but I did not wish to bathe in a bathtub with a fold out wall seat and bars all over the place. Was not the experience I was expecting. In the past, I’ve usually had much better experiences with Marriott properties. Additionally, the checkin process was awkward. Usually the attendant alerts you to breakfast hours, amenities, etc. Bradley just asked me if I had questions and handed me a key. Overall, I will not choose this hotel for stays in the future. I went down the street to the Holiday Inn where I am currently in a much nicer room for the same price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r566185934-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566185934</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Needs better security</t>
+  </si>
+  <si>
+    <t>Nice, well accomodated hotel but the incident of my family's tailgate being stolen from their truck with  without a general manager to report to or get a response from (to review security measures if any) the entire weekend soured the stay. Lock your tailgates if you can, or drive a car. Unfortunately our 2008 Silverado did not come with a lock. Marriott glossed over the incident, so we won't be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nice, well accomodated hotel but the incident of my family's tailgate being stolen from their truck with  without a general manager to report to or get a response from (to review security measures if any) the entire weekend soured the stay. Lock your tailgates if you can, or drive a car. Unfortunately our 2008 Silverado did not come with a lock. Marriott glossed over the incident, so we won't be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r565071118-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565071118</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>New, clean hotel</t>
+  </si>
+  <si>
+    <t>We enjoyed our 3 night at this Residence Inn. We had a large 2-bedroom suite with 2 bathrooms for our family of 4. Our suite and all of the public areas were clean and well maintained. We heard that the hotel opened just over a year ago. The included breakfast was typical of a Residence Inn and this level of hotel. We chose the hotel based on the good reviews, reasonable price, and easy access to the highways. We’d stay here again and recommend it to others.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r559429811-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559429811</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>New property in a commercial area</t>
+  </si>
+  <si>
+    <t>You can't get much cleaner than a new property. I was in Houston and needed a hotel close to my meeting and this was perfect. Location was great, staff was friendly and the room was perfect. The breakfast was also great &amp; I was out the door and on my way.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r556925098-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556925098</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>This place is a gem!</t>
+  </si>
+  <si>
+    <t>This brand new hotel is one of the nicest Marriott properties I have stayed in regardless of brand.  It is so conveniently located, the rooms are beautiful and the amenities are great.  It is also a great $$ value.  We enjoyed breakfast and the coffee!  I left something in my room and it was mailed UPS to my front door.  Kudos to management for running a great property.  We will be back soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r556415288-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556415288</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Great location-nice stay</t>
+  </si>
+  <si>
+    <t>The staff is amazing!! Aaron at the front desk was always willing to help and with a smile. One of the cleanest properties I have stayed in. Great location close to beltway. The gym is very nice and the pool/hot tub was very inviting. Great for families or the business traveler.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r532086653-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532086653</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This hotel was fabulous!!! Very clean and modern.  As others have said all the comforts of home.  Courteous staff and there to help you.  The breakfast was better than some continental at other hotels and the staff made sure it was always clean and fresh</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r531462112-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531462112</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Comforts of home</t>
+  </si>
+  <si>
+    <t>Spent 5 days and 4 nights here and not ready to leave! Rooms are spacious and can meet every traveler's needs.  Staff on top of things and very accommodating.  Safe neighborhood to walk, which you will if you have no transport since they serve only a complimentary and DELICIOUS breakfast. This place is Texas STRONG!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r513406113-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513406113</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Newer and modern</t>
+  </si>
+  <si>
+    <t>We picked this place since the rate was reasonable and they had good amenities.  The staff was nice at check in and our first night (Fri) was really quiet. Not too many people there but Sat. picked up some. Our room was spacious which was a king with sofa bed. When passing the rooms with bedrooms they were a good size.  You could tell by the distance from one door to the next.  The full kitchen and modernness to the whole room was very nice! Our bed was comfortable too and our son had no complaints about his sofa bed pull out.  Sat night was definitely busier and we were on the 2nd floor and had noise from upstairs and next to us. I would recommend staying on the highest floor to avoid this. It was like constant running on our ceiling until 1030pm. Breakfast was not too bad. It was the typical with some extras here and there.  It was not packed downstairs but get there early if possible.  Overall, nice place and not a bad area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We picked this place since the rate was reasonable and they had good amenities.  The staff was nice at check in and our first night (Fri) was really quiet. Not too many people there but Sat. picked up some. Our room was spacious which was a king with sofa bed. When passing the rooms with bedrooms they were a good size.  You could tell by the distance from one door to the next.  The full kitchen and modernness to the whole room was very nice! Our bed was comfortable too and our son had no complaints about his sofa bed pull out.  Sat night was definitely busier and we were on the 2nd floor and had noise from upstairs and next to us. I would recommend staying on the highest floor to avoid this. It was like constant running on our ceiling until 1030pm. Breakfast was not too bad. It was the typical with some extras here and there.  It was not packed downstairs but get there early if possible.  Overall, nice place and not a bad area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r498071345-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498071345</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for family getaway!!!</t>
+  </si>
+  <si>
+    <t>My family and I loved this hotel. The hotel is new. We especially enjoyed the freshness of the room, the beautiful pool and patio area, and the great breakfast every morning.  It was truly a home away from home for us.  We also enjoyed shooting some hoops on the basketball court. The only negative was having to leave; we would have loved to stay another night and go see the fireworks. Oh and the staff was also amazing. They were very accommodating and pleasant,  especially with our kids. This hotel is managed really well!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r480498697-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480498697</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>New Spacious and very nice</t>
+  </si>
+  <si>
+    <t>Very nice hotel. It's brand new so that helps but the rooms were nice and spacious and seemed to have everything you want for an extended stay except for a few things. 1. There are no ice machines in the hall and the front desk will not give you ice. So if you want ice make sure you turn on your ice maker in your freezer right away. 2. There is no bar/restaurant in the hotel or even remotely close. So if you are wanting to relax after work make sure you go to the store before coming back to the hotel. They do have a short happy hour Mon - Wed which was limited but generous.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel. It's brand new so that helps but the rooms were nice and spacious and seemed to have everything you want for an extended stay except for a few things. 1. There are no ice machines in the hall and the front desk will not give you ice. So if you want ice make sure you turn on your ice maker in your freezer right away. 2. There is no bar/restaurant in the hotel or even remotely close. So if you are wanting to relax after work make sure you go to the store before coming back to the hotel. They do have a short happy hour Mon - Wed which was limited but generous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r475584810-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475584810</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Amazing weekend getaway</t>
+  </si>
+  <si>
+    <t>I booked the weekend after Valentine's day with my boyfriend. It was a very nice n unnecessary hotel for us but we just LOVED it! I can't explain how great the room was. Kitchen fully stocked. Full sized fridge. Bathroom very contemporary. They even had an amazing sitting lounge outside. Sadly I didn't get the chance to sit out bc it was raining. They even had a basketball court! N the location is great too! Not too far from midtown or downtown! This hotel was just so nice. I can't wait to go back for more special occasions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r463553393-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463553393</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>New and nice hotel with a terrible problem</t>
+  </si>
+  <si>
+    <t>We stayed at this new residence inn property on January 28, 2017. Hotel is very new and have nice breakfast and other amenities. However one big problem kind of put water into all those amenities. This hotel has lots of Ants. and when I say lot it doesn't mean one or two random ants. I mean hundreds of fire ants. We had two rooms on downstairs and both of them had this problem. My wife was bitten by ants badly. After checking in we went out and came back late night. We were very tired by the time we got back and went straight to bed. That's why we haven't notice this problem. My wife noticed some ants on the bathroom and thought it is not a big deal. When we woke up next morning we did understand how bad it is. We had two infants in our group and we immediately removed them from the room.  
+More frustrating fact is when we notified this to the manager she was very reluctant to come to the our room for an inspection. After waiting for an hour I went to front desk again and show the manager. She apologized and mentioned the points I used to book the rooms will be refunded. However, that was a false promise as till date I haven't received any sort of refund. It's not that I cared or requested any refund. But the false promise...We stayed at this new residence inn property on January 28, 2017. Hotel is very new and have nice breakfast and other amenities. However one big problem kind of put water into all those amenities. This hotel has lots of Ants. and when I say lot it doesn't mean one or two random ants. I mean hundreds of fire ants. We had two rooms on downstairs and both of them had this problem. My wife was bitten by ants badly. After checking in we went out and came back late night. We were very tired by the time we got back and went straight to bed. That's why we haven't notice this problem. My wife noticed some ants on the bathroom and thought it is not a big deal. When we woke up next morning we did understand how bad it is. We had two infants in our group and we immediately removed them from the room.  More frustrating fact is when we notified this to the manager she was very reluctant to come to the our room for an inspection. After waiting for an hour I went to front desk again and show the manager. She apologized and mentioned the points I used to book the rooms will be refunded. However, that was a false promise as till date I haven't received any sort of refund. It's not that I cared or requested any refund. But the false promise was very annoying. And the she also took my number and said the general manager will call me. I haven't received any calls yet either. It is not a budget motel we are talking about. Marriott is a brand trusted by many for their service and cleanliness. As the hotel is new they probably have some cracks in the ground and ants are coming through. I just hope they are not sweeping the problem under the rug and addressing it correctly. I would not probably return to this Residence Inn any time soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this new residence inn property on January 28, 2017. Hotel is very new and have nice breakfast and other amenities. However one big problem kind of put water into all those amenities. This hotel has lots of Ants. and when I say lot it doesn't mean one or two random ants. I mean hundreds of fire ants. We had two rooms on downstairs and both of them had this problem. My wife was bitten by ants badly. After checking in we went out and came back late night. We were very tired by the time we got back and went straight to bed. That's why we haven't notice this problem. My wife noticed some ants on the bathroom and thought it is not a big deal. When we woke up next morning we did understand how bad it is. We had two infants in our group and we immediately removed them from the room.  
+More frustrating fact is when we notified this to the manager she was very reluctant to come to the our room for an inspection. After waiting for an hour I went to front desk again and show the manager. She apologized and mentioned the points I used to book the rooms will be refunded. However, that was a false promise as till date I haven't received any sort of refund. It's not that I cared or requested any refund. But the false promise...We stayed at this new residence inn property on January 28, 2017. Hotel is very new and have nice breakfast and other amenities. However one big problem kind of put water into all those amenities. This hotel has lots of Ants. and when I say lot it doesn't mean one or two random ants. I mean hundreds of fire ants. We had two rooms on downstairs and both of them had this problem. My wife was bitten by ants badly. After checking in we went out and came back late night. We were very tired by the time we got back and went straight to bed. That's why we haven't notice this problem. My wife noticed some ants on the bathroom and thought it is not a big deal. When we woke up next morning we did understand how bad it is. We had two infants in our group and we immediately removed them from the room.  More frustrating fact is when we notified this to the manager she was very reluctant to come to the our room for an inspection. After waiting for an hour I went to front desk again and show the manager. She apologized and mentioned the points I used to book the rooms will be refunded. However, that was a false promise as till date I haven't received any sort of refund. It's not that I cared or requested any refund. But the false promise was very annoying. And the she also took my number and said the general manager will call me. I haven't received any calls yet either. It is not a budget motel we are talking about. Marriott is a brand trusted by many for their service and cleanliness. As the hotel is new they probably have some cracks in the ground and ants are coming through. I just hope they are not sweeping the problem under the rug and addressing it correctly. I would not probably return to this Residence Inn any time soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r460228492-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460228492</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Amazing New hotel with amazing staff !</t>
+  </si>
+  <si>
+    <t>Had to book this hotel for family ,this is a newer property opened end of 2016 so everything is almost like new and amazing quality of service ,overall am always satisfied with Residence inn and any hotel operated under the Marriott brand but what makes this property stands out from others is the exceptional service from the front desk agents ,outstanding customer service and well worth every penny ,my family were treated like VIP ,in fact after booking I have called and spoken to a very nice lady who has upgraded me from studio to a 1 bedroom as a courtesy ,breakfast option is really really good and being free breakfast for the entire family this is well worth the money ,really good options hot and cold and waffle maker  for fresh waffles ,and  to top up the amazing service and overall quality ,coffee and tea is complimentary in the lobby the whole day with disposal cups to take to your room or even take with you on your way out .although it is the standard for residence inn however this location is distinguished  by its exceptional staff that are a gem of this location ,Gabriela is a real gem of this Residence inn ,she went out of her way to assist and has the best professional tone and very friendly ,nasheeda was there couple of times at the front desk and really showed the outstanding customer service similar to...Had to book this hotel for family ,this is a newer property opened end of 2016 so everything is almost like new and amazing quality of service ,overall am always satisfied with Residence inn and any hotel operated under the Marriott brand but what makes this property stands out from others is the exceptional service from the front desk agents ,outstanding customer service and well worth every penny ,my family were treated like VIP ,in fact after booking I have called and spoken to a very nice lady who has upgraded me from studio to a 1 bedroom as a courtesy ,breakfast option is really really good and being free breakfast for the entire family this is well worth the money ,really good options hot and cold and waffle maker  for fresh waffles ,and  to top up the amazing service and overall quality ,coffee and tea is complimentary in the lobby the whole day with disposal cups to take to your room or even take with you on your way out .although it is the standard for residence inn however this location is distinguished  by its exceptional staff that are a gem of this location ,Gabriela is a real gem of this Residence inn ,she went out of her way to assist and has the best professional tone and very friendly ,nasheeda was there couple of times at the front desk and really showed the outstanding customer service similar to the Marriott brand ,those 2 people really deserve to be recognized by management  ,cuz of them  I would rate this  property as a 5 star  hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Had to book this hotel for family ,this is a newer property opened end of 2016 so everything is almost like new and amazing quality of service ,overall am always satisfied with Residence inn and any hotel operated under the Marriott brand but what makes this property stands out from others is the exceptional service from the front desk agents ,outstanding customer service and well worth every penny ,my family were treated like VIP ,in fact after booking I have called and spoken to a very nice lady who has upgraded me from studio to a 1 bedroom as a courtesy ,breakfast option is really really good and being free breakfast for the entire family this is well worth the money ,really good options hot and cold and waffle maker  for fresh waffles ,and  to top up the amazing service and overall quality ,coffee and tea is complimentary in the lobby the whole day with disposal cups to take to your room or even take with you on your way out .although it is the standard for residence inn however this location is distinguished  by its exceptional staff that are a gem of this location ,Gabriela is a real gem of this Residence inn ,she went out of her way to assist and has the best professional tone and very friendly ,nasheeda was there couple of times at the front desk and really showed the outstanding customer service similar to...Had to book this hotel for family ,this is a newer property opened end of 2016 so everything is almost like new and amazing quality of service ,overall am always satisfied with Residence inn and any hotel operated under the Marriott brand but what makes this property stands out from others is the exceptional service from the front desk agents ,outstanding customer service and well worth every penny ,my family were treated like VIP ,in fact after booking I have called and spoken to a very nice lady who has upgraded me from studio to a 1 bedroom as a courtesy ,breakfast option is really really good and being free breakfast for the entire family this is well worth the money ,really good options hot and cold and waffle maker  for fresh waffles ,and  to top up the amazing service and overall quality ,coffee and tea is complimentary in the lobby the whole day with disposal cups to take to your room or even take with you on your way out .although it is the standard for residence inn however this location is distinguished  by its exceptional staff that are a gem of this location ,Gabriela is a real gem of this Residence inn ,she went out of her way to assist and has the best professional tone and very friendly ,nasheeda was there couple of times at the front desk and really showed the outstanding customer service similar to the Marriott brand ,those 2 people really deserve to be recognized by management  ,cuz of them  I would rate this  property as a 5 star  hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r448551793-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448551793</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Opened in October of 2016 and is fantastic</t>
+  </si>
+  <si>
+    <t>We got a free upgrade to a 2br/2ba unit and it was incredible.  The TV would be on in the living room, and I wouldn't be able to hear it from my room.  We didn't hear the neighbors one time throughout our 3-day stay.  This hotel being only 2 months old means that everything was clean and new.  They have the usual pool/workout room, but they also have a basketball court (well....a half court, but it's super nice).Meals after</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
 </sst>
 </file>
@@ -532,11 +918,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +950,1175 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_552.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_552.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,62 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r605170234-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10367555</t>
+  </si>
+  <si>
+    <t>605170234</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Great Choice, Minor Hiccups</t>
+  </si>
+  <si>
+    <t>Hotel itself is above similar hotels in amenities, space, and cleanliness. Our one bedroom double queen suite was, in my opinion, superior to Embassy Suites with more room and overall a more modern feel. The beds are on the firmer side which I prefer, it was an extremely comfortable stay. I thought the pool and outside areas were definitely a step above other Residence Inns. 
+One issue mentioned in other reviews particularly stood out - AT&amp;T service is in fact completely non-existent. Several missed text messages were not received until I drove a few miles away from the hotel, so it could be an issue with this part of town but I’m hopeful they consider signal boosters, this one is a big deal. A couple other hiccups I have not experienced at any other Res. Inn - although staff was super polite, it felt very understaffed. I stood at the front desk for over ten minutes at check-in waiting before someone showed. Housekeeping never arrived, but in all fairness we didn’t leave the room until after 11. However, when we requested extra towels that evening after settling in they told us to meet them at the front desk instead of having them delivered to our room just feet away. Not a big deal, but again feeling a little short staffed there. Although breakfast ends at 9:30 on weekends, nothing must have been replenished after 8:30 on my particular stay as...Hotel itself is above similar hotels in amenities, space, and cleanliness. Our one bedroom double queen suite was, in my opinion, superior to Embassy Suites with more room and overall a more modern feel. The beds are on the firmer side which I prefer, it was an extremely comfortable stay. I thought the pool and outside areas were definitely a step above other Residence Inns. One issue mentioned in other reviews particularly stood out - AT&amp;T service is in fact completely non-existent. Several missed text messages were not received until I drove a few miles away from the hotel, so it could be an issue with this part of town but I’m hopeful they consider signal boosters, this one is a big deal. A couple other hiccups I have not experienced at any other Res. Inn - although staff was super polite, it felt very understaffed. I stood at the front desk for over ten minutes at check-in waiting before someone showed. Housekeeping never arrived, but in all fairness we didn’t leave the room until after 11. However, when we requested extra towels that evening after settling in they told us to meet them at the front desk instead of having them delivered to our room just feet away. Not a big deal, but again feeling a little short staffed there. Although breakfast ends at 9:30 on weekends, nothing must have been replenished after 8:30 on my particular stay as there was hardly anything left or on its way. This includes coffee, which was not replenished the rest of the day - a must for us late risers on the weekend! As another review mentioned, despite booking early directly through Marriott Rewards, we had a handicapped accessible room which is absolutely beneficial for someone in need of one, but otherwise has several modifications and quirks if you are expecting a standard room. If you are noise sensitive, request the top floor. I think the location is fantastic. It’s not necessarily right next to much other than businesses and homes, but everything you need is within 5-10 minutes down Gessner and near Memorial City Mall, and I mean literally everything. Loved the HEB at Bunker Hill, we’re quite envious of that up in Dallas. A lot of baseball families here from Baseball USA which is very close. A few refinements and this is top notch. I can’t recommend for us AT&amp;T wireless folks though!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Hotel itself is above similar hotels in amenities, space, and cleanliness. Our one bedroom double queen suite was, in my opinion, superior to Embassy Suites with more room and overall a more modern feel. The beds are on the firmer side which I prefer, it was an extremely comfortable stay. I thought the pool and outside areas were definitely a step above other Residence Inns. 
+One issue mentioned in other reviews particularly stood out - AT&amp;T service is in fact completely non-existent. Several missed text messages were not received until I drove a few miles away from the hotel, so it could be an issue with this part of town but I’m hopeful they consider signal boosters, this one is a big deal. A couple other hiccups I have not experienced at any other Res. Inn - although staff was super polite, it felt very understaffed. I stood at the front desk for over ten minutes at check-in waiting before someone showed. Housekeeping never arrived, but in all fairness we didn’t leave the room until after 11. However, when we requested extra towels that evening after settling in they told us to meet them at the front desk instead of having them delivered to our room just feet away. Not a big deal, but again feeling a little short staffed there. Although breakfast ends at 9:30 on weekends, nothing must have been replenished after 8:30 on my particular stay as...Hotel itself is above similar hotels in amenities, space, and cleanliness. Our one bedroom double queen suite was, in my opinion, superior to Embassy Suites with more room and overall a more modern feel. The beds are on the firmer side which I prefer, it was an extremely comfortable stay. I thought the pool and outside areas were definitely a step above other Residence Inns. One issue mentioned in other reviews particularly stood out - AT&amp;T service is in fact completely non-existent. Several missed text messages were not received until I drove a few miles away from the hotel, so it could be an issue with this part of town but I’m hopeful they consider signal boosters, this one is a big deal. A couple other hiccups I have not experienced at any other Res. Inn - although staff was super polite, it felt very understaffed. I stood at the front desk for over ten minutes at check-in waiting before someone showed. Housekeeping never arrived, but in all fairness we didn’t leave the room until after 11. However, when we requested extra towels that evening after settling in they told us to meet them at the front desk instead of having them delivered to our room just feet away. Not a big deal, but again feeling a little short staffed there. Although breakfast ends at 9:30 on weekends, nothing must have been replenished after 8:30 on my particular stay as there was hardly anything left or on its way. This includes coffee, which was not replenished the rest of the day - a must for us late risers on the weekend! As another review mentioned, despite booking early directly through Marriott Rewards, we had a handicapped accessible room which is absolutely beneficial for someone in need of one, but otherwise has several modifications and quirks if you are expecting a standard room. If you are noise sensitive, request the top floor. I think the location is fantastic. It’s not necessarily right next to much other than businesses and homes, but everything you need is within 5-10 minutes down Gessner and near Memorial City Mall, and I mean literally everything. Loved the HEB at Bunker Hill, we’re quite envious of that up in Dallas. A lot of baseball families here from Baseball USA which is very close. A few refinements and this is top notch. I can’t recommend for us AT&amp;T wireless folks though!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r593373145-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593373145</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and roomy! </t>
+  </si>
+  <si>
+    <t>Great hotel!  The room is extremely spacious!  We stayed in a room with 2 doubles.  This included kitchen area, living room, bedroom, vanity/dresser area outside of bathroom, closet, and large bathroom.  Everything was extremely clean.  Fun outdoor amenities!  Highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r592169077-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>10367555</t>
-  </si>
-  <si>
     <t>592169077</t>
   </si>
   <si>
@@ -231,6 +275,45 @@
     <t>One of the better RI’s I’ve stayed in, solidly built, quiet rooms and nicely designed. Chose this place for proximity to an early business appointment. The only compromise is that it’s at least a 15 minute drive or more to find decent restaurants or markets.  I recommend taking the 25 minute drive to find Central Market downtown. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r577869738-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577869738</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Great hotel, no ATT service</t>
+  </si>
+  <si>
+    <t>Hotel is great. Evening mixers MTW with free beer &amp; wine &amp; snacks. Breakdast is good. ATT signal is non-existent, can't talk on cells or use Nighthawk wifi. Located near traffic light for easy travel all directions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r576905734-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576905734</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Best long-term stay option in West Houston</t>
+  </si>
+  <si>
+    <t>I stayed almost 40 nights at this hotel between January and April for business and family travel and I was never disappointed in the place.  It's modern, clean and comfortable.  I got on first name basis with most of the staff and they were all friendly and helpful.  There is a customer service comes first vibe there which clearly comes down from the management and its much appreciated.All the rooms have abundant plugs and wif works great.  Overall the nights are quiet and peaceful.They have happy hour mixers 3-4 nights a week with nice variety of beers and wines. They also have appetizers and even some solid meals available for the guests.Breakfast is fresh and plentiful, but it does get a bit redundant.  My only suggestion for improvement is for a little more variance in the menu.  Spice it up a little!Although its packed during the week, its almost empty on the weekends so the rates drop significantly.  I brought my  kids down one weekend and they stayed at the pool and basketball court all day long so we all slept great.  The fitness center is clean and well-appointed and the washers and dryers actually all worked (a first for extended-stay hotels for me).I've spent hundreds of nights in hotel rooms in Houston over the last several years, and this Residence Inn is a standout.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I stayed almost 40 nights at this hotel between January and April for business and family travel and I was never disappointed in the place.  It's modern, clean and comfortable.  I got on first name basis with most of the staff and they were all friendly and helpful.  There is a customer service comes first vibe there which clearly comes down from the management and its much appreciated.All the rooms have abundant plugs and wif works great.  Overall the nights are quiet and peaceful.They have happy hour mixers 3-4 nights a week with nice variety of beers and wines. They also have appetizers and even some solid meals available for the guests.Breakfast is fresh and plentiful, but it does get a bit redundant.  My only suggestion for improvement is for a little more variance in the menu.  Spice it up a little!Although its packed during the week, its almost empty on the weekends so the rates drop significantly.  I brought my  kids down one weekend and they stayed at the pool and basketball court all day long so we all slept great.  The fitness center is clean and well-appointed and the washers and dryers actually all worked (a first for extended-stay hotels for me).I've spent hundreds of nights in hotel rooms in Houston over the last several years, and this Residence Inn is a standout.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r566927976-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -276,9 +359,6 @@
     <t>Nice, well accomodated hotel but the incident of my family's tailgate being stolen from their truck with  without a general manager to report to or get a response from (to review security measures if any) the entire weekend soured the stay. Lock your tailgates if you can, or drive a car. Unfortunately our 2008 Silverado did not come with a lock. Marriott glossed over the incident, so we won't be returning.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Nice, well accomodated hotel but the incident of my family's tailgate being stolen from their truck with  without a general manager to report to or get a response from (to review security measures if any) the entire weekend soured the stay. Lock your tailgates if you can, or drive a car. Unfortunately our 2008 Silverado did not come with a lock. Marriott glossed over the incident, so we won't be returning.More</t>
   </si>
   <si>
@@ -300,6 +380,39 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r561966846-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561966846</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This place seems to be a pretty new building. It’s modern looking and clean. Free parking surrounding the hotel. Free breakfast as well (standard buffet style with eggs, sausage, waffles fruit). The staff seemed friendly. They have a really nice outdoor pool and hot tub. They have a fire pit that is located in the middle of the pool. There is also a very nice basketball court outside next to the pool. If you want to grill they have two by the pool and several seating areas nearby. I enjoyed my stay and the price I paid. The only issue I had was the walls in the rooms are a little thin, so I could hear walking above me and other noises next to me. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place seems to be a pretty new building. It’s modern looking and clean. Free parking surrounding the hotel. Free breakfast as well (standard buffet style with eggs, sausage, waffles fruit). The staff seemed friendly. They have a really nice outdoor pool and hot tub. They have a fire pit that is located in the middle of the pool. There is also a very nice basketball court outside next to the pool. If you want to grill they have two by the pool and several seating areas nearby. I enjoyed my stay and the price I paid. The only issue I had was the walls in the rooms are a little thin, so I could hear walking above me and other noises next to me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r560534250-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560534250</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>excellent for business travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pros:- all suites have kitchen with fridge, glassware, utensils, stove, microwave- free breakfast with large variety - free happy hour with drinks and finger food- clean- basketball court- indoor swimming poolcons:- no sit down restaurant for lunch/dinnerit is an excellent choice for business travelers </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r559429811-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,6 +464,42 @@
     <t>The staff is amazing!! Aaron at the front desk was always willing to help and with a smile. One of the cleanest properties I have stayed in. Great location close to beltway. The gym is very nice and the pool/hot tub was very inviting. Great for families or the business traveler.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r550089140-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550089140</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Great Location - Quiet</t>
+  </si>
+  <si>
+    <t>This Residence Inn is located on the west side of Houston. Location is a little commercial but that makes it quiet. I could hear some car noises from outside in the morning but it was not too bad. Close to many attractions like the huge Bears Creek Pioneers Park. Not too far from downtown Houston. Service was great and they offered a mixer on Wednesday afternoon with sweets, wine and other drinks and fruits. Very nice. They also offer free breakfast. Overall nice stay and I will stay here again if I am in the area.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r543704233-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543704233</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Nice Modern Marriott !</t>
+  </si>
+  <si>
+    <t>Very new and modern Residence Inn.  The place was extremely clean, breakfast was good, only drawback was they charge for a bottle of water !!  Not ideal for your guests !Convenient to the airport and downtown Houston.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r532086653-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -360,9 +509,6 @@
     <t>10/11/2017</t>
   </si>
   <si>
-    <t>Nice stay</t>
-  </si>
-  <si>
     <t>This hotel was fabulous!!! Very clean and modern.  As others have said all the comforts of home.  Courteous staff and there to help you.  The breakfast was better than some continental at other hotels and the staff made sure it was always clean and fresh</t>
   </si>
   <si>
@@ -405,6 +551,49 @@
     <t>We picked this place since the rate was reasonable and they had good amenities.  The staff was nice at check in and our first night (Fri) was really quiet. Not too many people there but Sat. picked up some. Our room was spacious which was a king with sofa bed. When passing the rooms with bedrooms they were a good size.  You could tell by the distance from one door to the next.  The full kitchen and modernness to the whole room was very nice! Our bed was comfortable too and our son had no complaints about his sofa bed pull out.  Sat night was definitely busier and we were on the 2nd floor and had noise from upstairs and next to us. I would recommend staying on the highest floor to avoid this. It was like constant running on our ceiling until 1030pm. Breakfast was not too bad. It was the typical with some extras here and there.  It was not packed downstairs but get there early if possible.  Overall, nice place and not a bad area.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r509483119-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509483119</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our weekend stay at this hotel. It is only about a year old. The location is convenient for shopping at Memorial City mall. This hotel is in a quiet office/industrial area and there are only a few restaurants nearby. It wasn't a problem for us because we were out and about all day. Breakfast was good with plenty of options. We'll be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r504404014-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504404014</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Exceeded all my expectations</t>
+  </si>
+  <si>
+    <t>We've lived in Houston for 5 years as expats, but my assignment is done and I'm relocating. My employer chose this hotel for me and the family to stay for our last 5 days. I had no conscious expectations, however, I am very happy to say that the Residence Inn is a surprisingly pleasant place to spend time.
+We had a two bedroom room suite, which includes a seating area and kitchen. The cleanliness deserves 6 or 7 stars. It's spotless, fantastically clean, somehow without feeling hospital-like sterile. 
+The staff are amazing. I guess this is in part due to the business model - it's a hotel for people who are planning to stay for extended periods. It's more like serviced apartments with friends for staff rather than a hotel.
+The breakfast is complementary (as all breakfasts should be) and good (as all breakfasts should be). A good selection of normal breakfast fare - eggs, sausages, muesli, etc. The highlight is make-your-own-waffles station. This is great fun and even I managed to make first class, fresh waffles,
+Every night they have a 90 minute theme in the restaurant (free drinks, desserts, etc). This creates a lovely social feeling where strangers get opportunities to get know each other and the staff better.
+Nothing is any trouble. I asked the manager for a domestic favour that many would've refused, but he was very willing to help. We needed to borrow a vacuum...We've lived in Houston for 5 years as expats, but my assignment is done and I'm relocating. My employer chose this hotel for me and the family to stay for our last 5 days. I had no conscious expectations, however, I am very happy to say that the Residence Inn is a surprisingly pleasant place to spend time.We had a two bedroom room suite, which includes a seating area and kitchen. The cleanliness deserves 6 or 7 stars. It's spotless, fantastically clean, somehow without feeling hospital-like sterile. The staff are amazing. I guess this is in part due to the business model - it's a hotel for people who are planning to stay for extended periods. It's more like serviced apartments with friends for staff rather than a hotel.The breakfast is complementary (as all breakfasts should be) and good (as all breakfasts should be). A good selection of normal breakfast fare - eggs, sausages, muesli, etc. The highlight is make-your-own-waffles station. This is great fun and even I managed to make first class, fresh waffles,Every night they have a 90 minute theme in the restaurant (free drinks, desserts, etc). This creates a lovely social feeling where strangers get opportunities to get know each other and the staff better.Nothing is any trouble. I asked the manager for a domestic favour that many would've refused, but he was very willing to help. We needed to borrow a vacuum cleaner - "of course" was the answer.During a slightly drunken moment, fueled by the free drinks, I mused that I could happily live here forever. Once sober, I realized this was just the drinks, and it's not really that good, but it's pretty bloody good.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've lived in Houston for 5 years as expats, but my assignment is done and I'm relocating. My employer chose this hotel for me and the family to stay for our last 5 days. I had no conscious expectations, however, I am very happy to say that the Residence Inn is a surprisingly pleasant place to spend time.
+We had a two bedroom room suite, which includes a seating area and kitchen. The cleanliness deserves 6 or 7 stars. It's spotless, fantastically clean, somehow without feeling hospital-like sterile. 
+The staff are amazing. I guess this is in part due to the business model - it's a hotel for people who are planning to stay for extended periods. It's more like serviced apartments with friends for staff rather than a hotel.
+The breakfast is complementary (as all breakfasts should be) and good (as all breakfasts should be). A good selection of normal breakfast fare - eggs, sausages, muesli, etc. The highlight is make-your-own-waffles station. This is great fun and even I managed to make first class, fresh waffles,
+Every night they have a 90 minute theme in the restaurant (free drinks, desserts, etc). This creates a lovely social feeling where strangers get opportunities to get know each other and the staff better.
+Nothing is any trouble. I asked the manager for a domestic favour that many would've refused, but he was very willing to help. We needed to borrow a vacuum...We've lived in Houston for 5 years as expats, but my assignment is done and I'm relocating. My employer chose this hotel for me and the family to stay for our last 5 days. I had no conscious expectations, however, I am very happy to say that the Residence Inn is a surprisingly pleasant place to spend time.We had a two bedroom room suite, which includes a seating area and kitchen. The cleanliness deserves 6 or 7 stars. It's spotless, fantastically clean, somehow without feeling hospital-like sterile. The staff are amazing. I guess this is in part due to the business model - it's a hotel for people who are planning to stay for extended periods. It's more like serviced apartments with friends for staff rather than a hotel.The breakfast is complementary (as all breakfasts should be) and good (as all breakfasts should be). A good selection of normal breakfast fare - eggs, sausages, muesli, etc. The highlight is make-your-own-waffles station. This is great fun and even I managed to make first class, fresh waffles,Every night they have a 90 minute theme in the restaurant (free drinks, desserts, etc). This creates a lovely social feeling where strangers get opportunities to get know each other and the staff better.Nothing is any trouble. I asked the manager for a domestic favour that many would've refused, but he was very willing to help. We needed to borrow a vacuum cleaner - "of course" was the answer.During a slightly drunken moment, fueled by the free drinks, I mused that I could happily live here forever. Once sober, I realized this was just the drinks, and it's not really that good, but it's pretty bloody good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r498071345-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -420,9 +609,6 @@
     <t>My family and I loved this hotel. The hotel is new. We especially enjoyed the freshness of the room, the beautiful pool and patio area, and the great breakfast every morning.  It was truly a home away from home for us.  We also enjoyed shooting some hoops on the basketball court. The only negative was having to leave; we would have loved to stay another night and go see the fireworks. Oh and the staff was also amazing. They were very accommodating and pleasant,  especially with our kids. This hotel is managed really well!</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r480498697-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,7 +645,40 @@
     <t>I booked the weekend after Valentine's day with my boyfriend. It was a very nice n unnecessary hotel for us but we just LOVED it! I can't explain how great the room was. Kitchen fully stocked. Full sized fridge. Bathroom very contemporary. They even had an amazing sitting lounge outside. Sadly I didn't get the chance to sit out bc it was raining. They even had a basketball court! N the location is great too! Not too far from midtown or downtown! This hotel was just so nice. I can't wait to go back for more special occasions.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r473597424-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473597424</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Great property still very new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is still very new, so all of the spaces are clean and modern.  Great amenities with pool, basketball and work out room etc. but the best part is the great customer service.  The employees have been extra accommodating! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r467703085-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467703085</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Nice new clean Hotel, would recommend</t>
+  </si>
+  <si>
+    <t>Came here and booked last minute for the Superbowl 2/3 thru 2/6. Three of us stayed here. The area seemed safe and nice enough, traveling with a couple guys and not family wasn't overly concerned if the area was just OK but would be comfortable bringing family or if it was a single traveler so felt I should mention it. The staff at the front desk that checked us in and greeted us were all very friendly (everyone we dealt with there were very good for that matter). Everything looked new and was extremely clean thru out the Hotel. Room was very good with plenty of space, all updated and spotless. Caught breakfast one morning which was very good there. Didn't get a chance to check it out but there is a pool, workout room and half basketball court. Booking last minute and taking a chance on a Hotel we were all very pleased and I would definitely recommend this Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Came here and booked last minute for the Superbowl 2/3 thru 2/6. Three of us stayed here. The area seemed safe and nice enough, traveling with a couple guys and not family wasn't overly concerned if the area was just OK but would be comfortable bringing family or if it was a single traveler so felt I should mention it. The staff at the front desk that checked us in and greeted us were all very friendly (everyone we dealt with there were very good for that matter). Everything looked new and was extremely clean thru out the Hotel. Room was very good with plenty of space, all updated and spotless. Caught breakfast one morning which was very good there. Didn't get a chance to check it out but there is a pool, workout room and half basketball court. Booking last minute and taking a chance on a Hotel we were all very pleased and I would definitely recommend this Hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r463553393-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
@@ -525,6 +744,42 @@
   </si>
   <si>
     <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r437927076-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437927076</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Brand New Property!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property has only been open for 30 days. It is the BEST Residence Inn I've ever stayed at over the last 20 yrs! Staff is super friendly, everything is pristine, bfast and happy hours are welcoming and the outdoor pool, sitting area, music, etc are just perfect for relaxing.  I will ONLY stay here for my future trips here.  </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10367555-r432263675-Residence_Inn_Houston_West_Beltway_8_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432263675</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>GREAT NEW HOTEL</t>
+  </si>
+  <si>
+    <t>This is a very good new Residence Inn. The rooms are well appointed and the staff is excellent. It is a quite location with easy access and free parking. The free breakfast was better than most Residence Inns</t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
 </sst>
 </file>
@@ -1068,17 +1323,11 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1122,35 +1371,27 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1166,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1175,43 +1416,45 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1227,7 +1470,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1236,43 +1479,47 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1288,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1297,25 +1544,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1327,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1349,7 +1596,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1358,43 +1605,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
         <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1410,7 +1653,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1419,32 +1662,34 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1455,7 +1700,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1471,7 +1716,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1480,25 +1725,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s">
-        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1509,10 +1754,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -1528,7 +1777,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1537,43 +1786,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1589,7 +1838,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1598,32 +1847,32 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1634,7 +1883,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1650,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1659,25 +1908,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="K12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>116</v>
-      </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1691,7 +1940,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -1707,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1716,25 +1965,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1748,7 +1997,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1773,31 +2022,31 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -1809,7 +2058,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -1825,7 +2074,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1834,38 +2083,32 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>136</v>
       </c>
-      <c r="J15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>140</v>
-      </c>
       <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -1888,7 +2131,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1897,39 +2140,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -1966,35 +2213,31 @@
         <v>152</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
         <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>154</v>
-      </c>
-      <c r="X17" t="s">
-        <v>155</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2019,35 +2262,37 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
         <v>158</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>159</v>
       </c>
-      <c r="K18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>153</v>
-      </c>
       <c r="O18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2055,7 +2300,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2071,7 +2316,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2080,32 +2325,30 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>164</v>
       </c>
-      <c r="J19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>168</v>
-      </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
@@ -2118,7 +2361,849 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
         <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>223</v>
+      </c>
+      <c r="X29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64973</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
